--- a/results.xlsx
+++ b/results.xlsx
@@ -17,13 +17,21 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00FF0000"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="0000FF00"/>
     </font>
   </fonts>
   <fills count="2">
